--- a/NBControl/Document/单灯控制器-NB协议v1.0.3.xlsx
+++ b/NBControl/Document/单灯控制器-NB协议v1.0.3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
   <si>
     <t>修改说明</t>
   </si>
@@ -518,18 +518,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>远程重启</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xAE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>0x12</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -561,6 +549,67 @@
   </si>
   <si>
     <t>2021.06.22</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>云盒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>云</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备故障报警</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x06</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0：正常或无此设备，1：故障
+1Bytre Lora故障
+     bit0：通讯故障  bit1：网络故障
+1Byte NB故障
+     bit0：通讯故障  bit1：sim卡故障  bit2：网络故障
+1Byte 4G故障
+     bit0：通讯故障  bit1：sim卡故障  bit2：网络故障
+1Byte 以太网故障
+     bit0：通讯故障  bit1：网线故障  bit2：网络故障
+1Byte 电量计1故障
+     bit0：通讯故障  bit1：电压过压  bit2：电流过流 bit3:灯头异常
+1Byte 电量计2故障
+     bit0：通讯故障  bit1：电压过压  bit2：电流过流 bit3:灯头异常
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警成功</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xBA</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1096,18 +1145,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,44 +1229,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1476,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1487,7 +1545,7 @@
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
     <col min="15" max="15" width="8.625" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="18" width="13" bestFit="1" customWidth="1"/>
@@ -1502,7 +1560,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1516,20 +1574,20 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="68"/>
+      <c r="G1" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="81"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="64"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="52" t="s">
         <v>100</v>
       </c>
@@ -1541,18 +1599,18 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="83"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="64"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="53" t="s">
         <v>98</v>
       </c>
@@ -1564,72 +1622,72 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="70"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="64"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="70"/>
+        <v>106</v>
+      </c>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="64"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="70"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="83"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="65"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="72"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="85"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4"/>
@@ -1666,40 +1724,40 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
     </row>
     <row r="11" spans="1:15" ht="17.25">
       <c r="A11" s="5" t="s">
@@ -1726,15 +1784,15 @@
       <c r="H11" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
       <c r="M11" s="58"/>
-      <c r="N11" s="80" t="s">
+      <c r="N11" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="81"/>
+      <c r="O11" s="61"/>
     </row>
     <row r="12" spans="1:15" ht="34.5">
       <c r="A12" s="10">
@@ -1761,15 +1819,15 @@
       <c r="H12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
       <c r="M12" s="58"/>
-      <c r="N12" s="80" t="s">
+      <c r="N12" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="81"/>
+      <c r="O12" s="61"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="10">
@@ -1786,10 +1844,10 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="57"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
       <c r="M13" s="58"/>
       <c r="N13" s="31" t="s">
         <v>24</v>
@@ -1854,40 +1912,40 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
     </row>
     <row r="19" spans="1:16" ht="17.25">
       <c r="A19" s="5" t="s">
@@ -1914,15 +1972,15 @@
       <c r="H19" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
       <c r="M19" s="58"/>
-      <c r="N19" s="80" t="s">
+      <c r="N19" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="81"/>
+      <c r="O19" s="61"/>
     </row>
     <row r="20" spans="1:16" ht="34.5">
       <c r="A20" s="10">
@@ -1949,15 +2007,15 @@
       <c r="H20" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
       <c r="M20" s="58"/>
-      <c r="N20" s="80" t="s">
+      <c r="N20" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="81"/>
+      <c r="O20" s="61"/>
     </row>
     <row r="21" spans="1:16" ht="17.25">
       <c r="A21" s="18">
@@ -1981,16 +2039,16 @@
       <c r="G21" s="21">
         <v>0</v>
       </c>
-      <c r="H21" s="82" t="s">
+      <c r="H21" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="81"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:16" ht="36" customHeight="1">
       <c r="A22" s="10">
@@ -2014,16 +2072,16 @@
       <c r="G22" s="21">
         <v>0</v>
       </c>
-      <c r="H22" s="82" t="s">
+      <c r="H22" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="81"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
     </row>
     <row r="23" spans="1:16" ht="33" customHeight="1">
       <c r="A23" s="18">
@@ -2047,16 +2105,16 @@
       <c r="G23" s="21">
         <v>0</v>
       </c>
-      <c r="H23" s="82" t="s">
+      <c r="H23" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="81"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="61"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
       <c r="A24" s="10">
@@ -2080,16 +2138,16 @@
       <c r="G24" s="21">
         <v>0</v>
       </c>
-      <c r="H24" s="82" t="s">
+      <c r="H24" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="81"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="4"/>
@@ -2160,40 +2218,40 @@
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
     </row>
     <row r="31" spans="1:16" ht="18" thickBot="1">
       <c r="A31" s="5" t="s">
@@ -2217,7 +2275,7 @@
       <c r="G31" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="60" t="s">
+      <c r="H31" s="65" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="55"/>
@@ -2225,10 +2283,10 @@
       <c r="K31" s="55"/>
       <c r="L31" s="55"/>
       <c r="M31" s="56"/>
-      <c r="N31" s="85" t="s">
+      <c r="N31" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="81"/>
+      <c r="O31" s="61"/>
     </row>
     <row r="32" spans="1:16" ht="105" customHeight="1" thickBot="1">
       <c r="A32" s="24">
@@ -2246,18 +2304,18 @@
         <v>50</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="79"/>
+        <v>103</v>
+      </c>
+      <c r="H32" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="71"/>
       <c r="P32" s="33" t="s">
         <v>101</v>
       </c>
@@ -2280,7 +2338,7 @@
       <c r="G33" s="29">
         <v>4</v>
       </c>
-      <c r="H33" s="74" t="s">
+      <c r="H33" s="72" t="s">
         <v>95</v>
       </c>
       <c r="I33" s="55"/>
@@ -2312,14 +2370,14 @@
       <c r="G34" s="29">
         <v>4</v>
       </c>
-      <c r="H34" s="74" t="s">
+      <c r="H34" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="61"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="74"/>
       <c r="N34" s="57"/>
       <c r="O34" s="58"/>
     </row>
@@ -2341,15 +2399,15 @@
       <c r="G35" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="74" t="s">
+      <c r="H35" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="62"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="73"/>
       <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:26" ht="81" customHeight="1">
@@ -2370,15 +2428,15 @@
       <c r="G36" s="29">
         <v>0</v>
       </c>
-      <c r="H36" s="74" t="s">
+      <c r="H36" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="62"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="73"/>
       <c r="O36" s="58"/>
     </row>
     <row r="37" spans="1:26" ht="77.099999999999994" customHeight="1">
@@ -2399,15 +2457,15 @@
       <c r="G37" s="29">
         <v>0</v>
       </c>
-      <c r="H37" s="74" t="s">
+      <c r="H37" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="62"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="73"/>
       <c r="O37" s="58"/>
     </row>
     <row r="38" spans="1:26" ht="81" customHeight="1">
@@ -2428,15 +2486,15 @@
       <c r="G38" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="74" t="s">
+      <c r="H38" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="62"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="73"/>
       <c r="O38" s="58"/>
     </row>
     <row r="39" spans="1:26" ht="34.5">
@@ -2457,15 +2515,15 @@
       <c r="G39" s="29">
         <v>0</v>
       </c>
-      <c r="H39" s="74" t="s">
+      <c r="H39" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="62"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="73"/>
       <c r="O39" s="58"/>
     </row>
     <row r="40" spans="1:26" ht="69" customHeight="1" thickBot="1">
@@ -2486,85 +2544,85 @@
       <c r="G40" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="74" t="s">
+      <c r="H40" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="62"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="73"/>
       <c r="O40" s="58"/>
     </row>
-    <row r="41" spans="1:26" ht="39" customHeight="1" thickBot="1">
-      <c r="A41" s="27">
+    <row r="41" spans="1:26" ht="201" customHeight="1" thickBot="1">
+      <c r="A41" s="30">
         <v>10</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="29">
-        <v>0</v>
-      </c>
-      <c r="H41" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="56"/>
+        <v>111</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="89"/>
       <c r="N41" s="57"/>
       <c r="O41" s="58"/>
-      <c r="P41" s="33"/>
-    </row>
-    <row r="42" spans="1:26" ht="39" customHeight="1" thickBot="1">
+      <c r="P41" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="18" thickBot="1">
       <c r="A42" s="30">
         <v>11</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="F42" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="57"/>
+        <v>115</v>
+      </c>
+      <c r="G42" s="29">
+        <v>0</v>
+      </c>
+      <c r="H42" s="75"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="73"/>
       <c r="O42" s="58"/>
-      <c r="P42" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="18" thickBot="1">
-      <c r="A43" s="27">
+      <c r="P42" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="39" customHeight="1" thickBot="1">
+      <c r="A43" s="30">
         <v>12</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>72</v>
@@ -2572,60 +2630,82 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
       <c r="F43" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="18" thickBot="1">
+      <c r="A44" s="30">
+        <v>13</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="29">
+      <c r="G44" s="29">
         <v>0</v>
       </c>
-      <c r="H43" s="59"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="35" t="s">
+      <c r="H44" s="75"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="14.25" thickBot="1"/>
-    <row r="46" spans="1:26">
-      <c r="Q46" s="36" t="s">
+    <row r="46" spans="1:26" ht="14.25" thickBot="1"/>
+    <row r="47" spans="1:26">
+      <c r="Q47" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="35" t="s">
+      <c r="R47" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="S46" s="37" t="s">
+      <c r="S47" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="T46" s="38" t="s">
+      <c r="T47" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="U46" s="38" t="s">
+      <c r="U47" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
-      <c r="Z46" s="40"/>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="S47" s="41"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="44"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="40"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="S48" s="45"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
       <c r="V48" s="43"/>
       <c r="W48" s="43"/>
       <c r="X48" s="43"/>
@@ -2633,56 +2713,100 @@
       <c r="Z48" s="44"/>
     </row>
     <row r="49" spans="18:26">
-      <c r="R49" s="35" t="s">
+      <c r="S49" s="45"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="44"/>
+    </row>
+    <row r="50" spans="18:26">
+      <c r="R50" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="S49" s="41" t="s">
+      <c r="S50" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="T49" s="46" t="s">
+      <c r="T50" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="U49" s="46" t="s">
+      <c r="U50" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="V49" s="46" t="s">
+      <c r="V50" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="W49" s="46" t="s">
+      <c r="W50" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="X49" s="46" t="s">
+      <c r="X50" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="Y49" s="46" t="s">
+      <c r="Y50" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="Z49" s="47" t="s">
+      <c r="Z50" s="47" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="18:26" ht="27.75" thickBot="1">
-      <c r="S50" s="48" t="s">
+    <row r="51" spans="18:26" ht="27.75" thickBot="1">
+      <c r="S51" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="49"/>
-      <c r="W50" s="49" t="s">
+      <c r="T51" s="49"/>
+      <c r="U51" s="49"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="X50" s="49">
+      <c r="X51" s="49">
         <v>2</v>
       </c>
-      <c r="Y50" s="50" t="s">
+      <c r="Y51" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="Z50" s="51"/>
+      <c r="Z51" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="50">
     <mergeCell ref="H41:M41"/>
     <mergeCell ref="N41:O41"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="G1:O6"/>
+    <mergeCell ref="A17:O18"/>
+    <mergeCell ref="A9:O10"/>
+    <mergeCell ref="A29:O30"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:O42"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="H12:M12"/>
@@ -2697,38 +2821,6 @@
     <mergeCell ref="H22:M22"/>
     <mergeCell ref="N22:O22"/>
     <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="G1:O6"/>
-    <mergeCell ref="A17:O18"/>
-    <mergeCell ref="A9:O10"/>
-    <mergeCell ref="A29:O30"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="H39:M39"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
